--- a/initial_stats_exemptions.xlsx
+++ b/initial_stats_exemptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\workshop\HR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5FB545-C175-48EF-A083-3244AC04078D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8155F6-5140-4D10-BEFC-EC619E4F114B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DCD8B09C-DB01-4F59-A593-F2D256B6698B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DCD8B09C-DB01-4F59-A593-F2D256B6698B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Exempt Parent of a Child Under 13</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Exempt Pregnant (estimate)</t>
+  </si>
+  <si>
+    <t>Exempt American Indian</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74086E1A-5780-4671-99EF-F6870591A010}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,98 +479,110 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>122662</v>
+        <v>29348</v>
       </c>
       <c r="C4" s="3">
         <f>B4/$B$2</f>
-        <v>0.20715383446202693</v>
+        <v>4.9563440460709644E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>34240</v>
+        <v>122662</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C10" si="0">B5/$B$2</f>
-        <v>5.7825139749717126E-2</v>
+        <f>B5/$B$2</f>
+        <v>0.20715383446202693</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>34240</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:C11" si="0">B6/$B$2</f>
+        <v>5.7825139749717126E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1276</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>2.1549321939438974E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>114006</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>0.1925354229645517</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>252508</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0.42644013983415802</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>10027</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>1.6933781433131238E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>8249</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>1.3931062435613801E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <v>341871</v>
-      </c>
-      <c r="C11" s="3">
-        <f>B11/$B$2</f>
-        <v>0.57735801259858477</v>
+      <c r="B12" s="2">
+        <v>351113</v>
+      </c>
+      <c r="C12" s="3">
+        <f>B12/$B$2</f>
+        <v>0.59296607163967374</v>
       </c>
     </row>
   </sheetData>
